--- a/Excels/Lista3.xlsx
+++ b/Excels/Lista3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorios\UnificadorDeTelefonos\UnificadorTelefonos\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC3DDD1-697D-4663-A58B-C826EF50EED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F465E2C8-8C0F-43BD-B1A1-736CDA5EB4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{84479771-C07B-486D-AE1E-9C14184AEFD7}"/>
   </bookViews>
@@ -431,49 +431,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC64540-7719-42EF-8234-DD2ACAAFD174}">
-  <dimension ref="I1:I11"/>
+  <dimension ref="D9:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="9" max="9" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I1" s="1" t="s">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I2" t="s">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I4" t="s">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
